--- a/eclipseSelenium/TestData.xlsx
+++ b/eclipseSelenium/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -31,12 +31,22 @@
   </si>
   <si>
     <t>rahul</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hello.....</t>
+  </si>
+  <si>
+    <t>Hello......</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,9 +395,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -412,6 +422,11 @@
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
